--- a/web/reportes/congruencia-9-11.xlsx
+++ b/web/reportes/congruencia-9-11.xlsx
@@ -111,7 +111,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -142,6 +142,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -628,7 +629,7 @@
   <dimension ref="A2:J997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F8" sqref="F8:F997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,10 +706,10 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="18" t="n">
         <v>5.7E8</v>
       </c>
-      <c r="F8" s="13" t="n">
+      <c r="F8" s="18" t="n">
         <v>2.3509558E7</v>
       </c>
       <c r="H8" s="16" t="n">
